--- a/tabla_final1.xlsx
+++ b/tabla_final1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G62"/>
+  <dimension ref="A1:G147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,7 +467,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-3</t>
+          <t>2024-2</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -484,7 +484,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve">291123                        </t>
+          <t xml:space="preserve">011023                        </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -493,47 +493,47 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>647</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CDPI</t>
+          <t>CDGD</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2024-2</t>
+          <t>2024-3</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>6030010170</v>
+        <v>6050100007</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve">160823                        </t>
+          <t xml:space="preserve">291123                        </t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>662587</t>
+          <t>662585</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2887</v>
+        <v>647</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CDVM</t>
+          <t>CDGD</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,60 +542,60 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>6040100003</v>
+        <v>6050100007</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve">151023                        </t>
+          <t xml:space="preserve">011223                        </t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>662583</t>
+          <t>662585</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>130</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CDVM</t>
+          <t>CDPI</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2024-3</t>
+          <t>2024-2</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>6090020012</v>
+        <v>6030010170</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve">011123                        </t>
+          <t xml:space="preserve">160823                        </t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>662584</t>
+          <t>662587</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>80</v>
+        <v>2887</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CDVM</t>
+          <t>CDPI</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -604,91 +604,91 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>6090020012</v>
+        <v>6030010019</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve">061023                        </t>
+          <t xml:space="preserve">041223                        </t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>662584</t>
+          <t>662587</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>80</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CDGD</t>
+          <t>CDVM</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2024-2</t>
+          <t>2024-3</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>6030010007</v>
+        <v>6040100003</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve">140823                        </t>
+          <t xml:space="preserve">151023                        </t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>661199</t>
+          <t>662583</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>20</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CDGD</t>
+          <t>CDVM</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2024-2</t>
+          <t>2024-3</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>6030010007</v>
+        <v>6040100003</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve">080923                        </t>
+          <t xml:space="preserve">201123                        </t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>661199</t>
+          <t>662583</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>15</v>
+        <v>381</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CDGD</t>
+          <t>CDVM</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -697,29 +697,29 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>6030010019</v>
+        <v>6040100003</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve">101123                        </t>
+          <t xml:space="preserve">201123                        </t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>661199</t>
+          <t>662584</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>36</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CDGD</t>
+          <t>CDVM</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -728,29 +728,29 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>6030050070</v>
+        <v>6090020012</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve">R211023                       </t>
+          <t xml:space="preserve">011123                        </t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>661181</t>
+          <t>662584</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>116</v>
+        <v>69</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CDGD</t>
+          <t>CDVM</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -759,29 +759,29 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>6030050070</v>
+        <v>6090020012</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve">R211023                       </t>
+          <t xml:space="preserve">061023                        </t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>661182</t>
+          <t>662584</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>119</v>
+        <v>73</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CDGD</t>
+          <t>CDVM</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -790,25 +790,25 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>6030050070</v>
+        <v>6090020012</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve">R211023                       </t>
+          <t xml:space="preserve">121123                        </t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>661199</t>
+          <t>662584</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>20</v>
+        <v>608</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>194</v>
+        <v>14</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -817,15 +817,15 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2024-3</t>
+          <t>2024-2</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>6030050071</v>
+        <v>6030010007</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t xml:space="preserve">R171023                       </t>
+          <t xml:space="preserve">140823                        </t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -834,12 +834,12 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>287</v>
+        <v>29</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -848,29 +848,29 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2025-4</t>
+          <t>2024-2</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>6010010077</v>
+        <v>6030010007</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve">311023                        </t>
+          <t xml:space="preserve">080923                        </t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>174779</t>
+          <t>661199</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>302</v>
+        <v>44</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -879,29 +879,29 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2025-4</t>
+          <t>2024-2</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>6010010077</v>
+        <v>6030010007</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve">111123                        </t>
+          <t xml:space="preserve">011023                        </t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>174779</t>
+          <t>661199</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>317</v>
+        <v>54</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -910,38 +910,38 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2025-4</t>
+          <t>2024-2</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>6010010077</v>
+        <v>6090020009</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve">231223                        </t>
+          <t xml:space="preserve">070823                        </t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>174779</t>
+          <t>660377</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>388</v>
+        <v>57</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CDVM</t>
+          <t>CDGD</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2024-3</t>
+          <t>2024-2</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -949,61 +949,61 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t xml:space="preserve">011023                        </t>
+          <t xml:space="preserve">070823                        </t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>661198</t>
+          <t>661197</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>473</v>
+        <v>59</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CDVM</t>
+          <t>CDGD</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2025-3</t>
+          <t>2024-2</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>6010140007</v>
+        <v>6090020009</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t xml:space="preserve">256/23                        </t>
+          <t xml:space="preserve">070823                        </t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>175122</t>
+          <t>661199</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>562</v>
+        <v>62</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CDVM</t>
+          <t>CDGD</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2025-4</t>
+          <t>2024-3</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -1011,21 +1011,21 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t xml:space="preserve">301123                        </t>
+          <t xml:space="preserve">060822                        </t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>175108</t>
+          <t>174779</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>3</v>
+        <v>89</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1034,29 +1034,29 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2024-2</t>
+          <t>2024-3</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>6040100010</v>
+        <v>6030010019</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve">180723                        </t>
+          <t xml:space="preserve">101123                        </t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>662182</t>
+          <t>661199</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1069,25 +1069,25 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>6030050071</v>
+        <v>6030050070</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t xml:space="preserve">R171023                       </t>
+          <t xml:space="preserve">R211023                       </t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>662182</t>
+          <t>661181</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>54</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1100,25 +1100,25 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>6040100010</v>
+        <v>6030050070</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t xml:space="preserve">261023                        </t>
+          <t xml:space="preserve">R211023                       </t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>662182</t>
+          <t>661182</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1127,144 +1127,144 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2024-4</t>
+          <t>2024-3</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>6040100010</v>
+        <v>6030050070</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t xml:space="preserve">061223                        </t>
+          <t xml:space="preserve">R211023                       </t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>662182</t>
+          <t>661199</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>92</v>
+        <v>194</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CDPI</t>
+          <t>CDGD</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2024-2</t>
+          <t>2024-3</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6030010007</v>
+        <v>6030050071</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t xml:space="preserve">150923                        </t>
+          <t xml:space="preserve">R171023                       </t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>662183</t>
+          <t>661199</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>520</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>152</v>
+        <v>220</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CDVM</t>
+          <t>CDGD</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2024-2</t>
+          <t>2024-3</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>6030010129</v>
+        <v>6050100002</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t xml:space="preserve">060923                        </t>
+          <t xml:space="preserve">291123                        </t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>661681</t>
+          <t>661181</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>29</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CDVM</t>
+          <t>CDGD</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2024-3</t>
+          <t>2025-1</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>6030010026</v>
+        <v>6010900031</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t xml:space="preserve">061123                        </t>
+          <t xml:space="preserve">210323                        </t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>661987</t>
+          <t>174676</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>72</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CDVM</t>
+          <t>CDGD</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2024-3</t>
+          <t>2025-1</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>6030050070</v>
+        <v>6010900031</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t xml:space="preserve">R231123                       </t>
+          <t xml:space="preserve">210323                        </t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>662186</t>
+          <t>174964</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -1273,100 +1273,100 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CDVM</t>
+          <t>CDGD</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2024-3</t>
+          <t>2025-2</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>6050100007</v>
+        <v>6011570001</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t xml:space="preserve">291123                        </t>
+          <t xml:space="preserve">090423                        </t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>661681</t>
+          <t>174927</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>CDVM</t>
+          <t>CDGD</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2024-3</t>
+          <t>2025-3</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>6050100007</v>
+        <v>6010010077</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t xml:space="preserve">291123                        </t>
+          <t xml:space="preserve">090923                        </t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>661802</t>
+          <t>174779</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>CDVM</t>
+          <t>CDGD</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2024-3</t>
+          <t>2025-3</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>6090020009</v>
+        <v>6010010112</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t xml:space="preserve">011023                        </t>
+          <t xml:space="preserve">280923                        </t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>661802</t>
+          <t>175067</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>57</v>
+        <v>287</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1375,29 +1375,29 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2024-3</t>
+          <t>2025-4</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>6030010019</v>
+        <v>6010010077</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t xml:space="preserve">101123                        </t>
+          <t xml:space="preserve">311023                        </t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>662475</t>
+          <t>174779</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>78</v>
+        <v>302</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1406,29 +1406,29 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2024-3</t>
+          <t>2025-4</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>6030050071</v>
+        <v>6010010077</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t xml:space="preserve">R171023                       </t>
+          <t xml:space="preserve">111123                        </t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>662563</t>
+          <t>174779</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>127</v>
+        <v>317</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1437,64 +1437,64 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2024-3</t>
+          <t>2025-4</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>6090020011</v>
+        <v>6010010077</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t xml:space="preserve">120923                        </t>
+          <t xml:space="preserve">231223                        </t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>662475</t>
+          <t>174779</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>143</v>
+        <v>358</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>CDGD</t>
+          <t>CDVM</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2024-4</t>
+          <t>2024-2</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>6040100010</v>
+        <v>6030010007</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t xml:space="preserve">061223                        </t>
+          <t xml:space="preserve">011023                        </t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>662429</t>
+          <t>661198</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>6</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>161</v>
+        <v>373</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>CDPI</t>
+          <t>CDVM</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1503,25 +1503,25 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>6030050074</v>
+        <v>6030010019</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t xml:space="preserve">R250823                       </t>
+          <t xml:space="preserve">010923                        </t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>662400</t>
+          <t>661198</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>224</v>
+        <v>388</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1530,29 +1530,29 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2024-2</t>
+          <t>2024-3</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>6030010129</v>
+        <v>6090020009</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t xml:space="preserve">060923                        </t>
+          <t xml:space="preserve">011023                        </t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>662438</t>
+          <t>661198</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>174</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>252</v>
+        <v>438</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1561,29 +1561,29 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2024-3</t>
+          <t>2025-1</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>6030010019</v>
+        <v>6010040111</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t xml:space="preserve">051023                        </t>
+          <t xml:space="preserve">240223                        </t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>662418</t>
+          <t>174925</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>144</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>262</v>
+        <v>450</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1592,29 +1592,29 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2024-3</t>
+          <t>2025-1</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>6030010019</v>
+        <v>6011570002</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t xml:space="preserve">061023                        </t>
+          <t xml:space="preserve">140323                        </t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>662418</t>
+          <t>174609</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>294</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>349</v>
+        <v>457</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1623,153 +1623,153 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2024-3</t>
+          <t>2025-1</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>6030010026</v>
+        <v>6011570002</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t xml:space="preserve">061123                        </t>
+          <t xml:space="preserve">140323                        </t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>662588</t>
+          <t>175108</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>36</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>0</v>
+        <v>473</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>CDGD</t>
+          <t>CDVM</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2024-3</t>
+          <t>2025-3</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>6030050069</v>
+        <v>6010140007</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t xml:space="preserve">R111023                       </t>
+          <t xml:space="preserve">256/23                        </t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>662566</t>
+          <t>175122</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>136</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>1</v>
+        <v>503</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>CDGD</t>
+          <t>CDVM</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2024-3</t>
+          <t>2025-3</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>6030050069</v>
+        <v>6010140008</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t xml:space="preserve">R131023                       </t>
+          <t xml:space="preserve">258/23                        </t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>662566</t>
+          <t>175122</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>136</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>4</v>
+        <v>518</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>CDGD</t>
+          <t>CDVM</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2024-4</t>
+          <t>2025-3</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>6040100010</v>
+        <v>6010550008</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t xml:space="preserve">061223                        </t>
+          <t xml:space="preserve">223/23                        </t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>662439</t>
+          <t>175122</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>5</v>
+        <v>533</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>CDGD</t>
+          <t>CDVM</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2024-4</t>
+          <t>2025-3</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>6040100010</v>
+        <v>6011640001</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t xml:space="preserve">061223                        </t>
+          <t xml:space="preserve">250/23                        </t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>662440</t>
+          <t>175122</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>120</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>18</v>
+        <v>547</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1782,25 +1782,25 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>6010550008</v>
+        <v>6010010007</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t xml:space="preserve">299/23                        </t>
+          <t xml:space="preserve">241123                        </t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>175202</t>
+          <t>175108</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>249</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>0</v>
+        <v>562</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1809,64 +1809,64 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2024-3</t>
+          <t>2025-4</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>6090020009</v>
+        <v>6010010077</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t xml:space="preserve">061123                        </t>
+          <t xml:space="preserve">301123                        </t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>662295</t>
+          <t>175108</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>50</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>CDVM</t>
+          <t>CDGD</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2024-3</t>
+          <t>2024-2</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>6090020009</v>
+        <v>6040100010</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t xml:space="preserve">061123                        </t>
+          <t xml:space="preserve">180723                        </t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>662483</t>
+          <t>662182</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>43</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>CDCDCO1</t>
+          <t>CDGD</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1875,29 +1875,29 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>6030010170</v>
+        <v>6040100010</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t xml:space="preserve">160823                        </t>
+          <t xml:space="preserve">150823                        </t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>662586</t>
+          <t>662228</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>6528</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>CDPI</t>
+          <t>CDGD</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1906,100 +1906,100 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>6030010208</v>
+        <v>6090020009</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t xml:space="preserve">140823                        </t>
+          <t xml:space="preserve">070823                        </t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>662582</t>
+          <t>662232</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1520</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>CDCDCO1</t>
+          <t>CDGD</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2024-2</t>
+          <t>2024-3</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>6030010026</v>
+        <v>6030050071</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t xml:space="preserve">120823                        </t>
+          <t xml:space="preserve">R171023                       </t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>662430</t>
+          <t>662182</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>108</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>CDCDCO1</t>
+          <t>CDGD</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2025-4</t>
+          <t>2024-3</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>6010010008</v>
+        <v>6040100010</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t xml:space="preserve">011123                        </t>
+          <t xml:space="preserve">261023                        </t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>174893</t>
+          <t>662182</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>150</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>CDCDCO1</t>
+          <t>CDGD</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2025-4</t>
+          <t>2024-3</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>6010010008</v>
+        <v>6040100010</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2008,175 +2008,175 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>175123</t>
+          <t>662182</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>150</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>CDCDCO1</t>
+          <t>CDGD</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2025-4</t>
+          <t>2024-3</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>6010010008</v>
+        <v>6050100002</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t xml:space="preserve">011123                        </t>
+          <t xml:space="preserve">291123                        </t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>175124</t>
+          <t>662182</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>120</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>153</v>
+        <v>67</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>CDVM</t>
+          <t>CDGD</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2025-4</t>
+          <t>2024-3</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>6010010077</v>
+        <v>6090020009</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t xml:space="preserve">301123                        </t>
+          <t xml:space="preserve">181023                        </t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>174759</t>
+          <t>662182</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>208</v>
+        <v>70</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>CDVMZPA</t>
+          <t>CDGD</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2024-2</t>
+          <t>2024-3</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>6030010007</v>
+        <v>6090020009</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t xml:space="preserve">070823                        </t>
+          <t xml:space="preserve">181023                        </t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>662488</t>
+          <t>662228</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>260</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>303</v>
+        <v>71</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>CDVMZPA</t>
+          <t>CDGD</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2024-2</t>
+          <t>2024-3</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>6030050071</v>
+        <v>6090020009</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t xml:space="preserve">R140823                       </t>
+          <t xml:space="preserve">181023                        </t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>662488</t>
+          <t>662232</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>144</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>CDCDCO1</t>
+          <t>CDGD</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2024-2</t>
+          <t>2024-4</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>6030010007</v>
+        <v>6040100010</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t xml:space="preserve">220823                        </t>
+          <t xml:space="preserve">061223                        </t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>662589</t>
+          <t>662182</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>7020</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>CDCDCO1</t>
+          <t>CDPI</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2189,52 +2189,52 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t xml:space="preserve">010923                        </t>
+          <t xml:space="preserve">150923                        </t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>662589</t>
+          <t>662183</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>260</v>
+        <v>520</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>6</v>
+        <v>116</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>CDCDCO1</t>
+          <t>CDPI</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>2024-2</t>
+          <t>2024-3</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>6030010007</v>
+        <v>6030010019</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t xml:space="preserve">010923                        </t>
+          <t xml:space="preserve">041223                        </t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>662592</t>
+          <t>662183</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>4420</v>
+        <v>288</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -2243,33 +2243,33 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2024-2</t>
+          <t>2024-3</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>6030010170</v>
+        <v>6030010026</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t xml:space="preserve">220823                        </t>
+          <t xml:space="preserve">051023                        </t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>662591</t>
+          <t>662183</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>7616</v>
+        <v>108</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>CDPI</t>
+          <t>CDVM</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2278,47 +2278,47 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>6030010170</v>
+        <v>6030010007</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t xml:space="preserve">220823                        </t>
+          <t xml:space="preserve">011023                        </t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>662593</t>
+          <t>661681</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>7072</v>
+        <v>260</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>CDGD</t>
+          <t>CDVM</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2025-4</t>
+          <t>2024-2</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>6010010007</v>
+        <v>6030010007</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t xml:space="preserve">021123                        </t>
+          <t xml:space="preserve">011023                        </t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>175184</t>
+          <t>661987</t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -2327,32 +2327,2667 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>CDVM</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>2024-2</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>6030010007</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">011023                        </t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>662186</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>CDVM</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>2024-2</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>6030010019</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">010923                        </t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>661681</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>CDVM</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>2024-2</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>6030010019</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">010923                        </t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>661987</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>CDVM</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>2024-2</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>6030010019</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">010923                        </t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>662186</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>CDVM</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>2024-2</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>6030010026</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">010923                        </t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>661987</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>CDVM</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>2024-2</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>6030010129</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">060923                        </t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>661681</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>CDVM</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>2024-2</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>6030040007</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">160823                        </t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>661987</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>CDVM</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>2024-2</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>6030040007</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">160823                        </t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>662186</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>CDVM</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>2024-2</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>6090020011</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">070823                        </t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>661802</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>CDVM</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>2024-3</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>6030010026</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">061123                        </t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>661987</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>CDVM</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>2024-3</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>6030010026</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">061123                        </t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>662186</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>CDVM</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>2024-3</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>6030040040</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">241023                        </t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>661987</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>CDVM</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>2024-3</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>6030040040</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">241023                        </t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>662186</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>CDVM</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>2024-3</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>6030050070</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R231123                       </t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>662186</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>CDVM</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>2024-3</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>6050100007</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">291123                        </t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>661681</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>CDVM</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>2024-3</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>6050100007</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">291123                        </t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>661802</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>CDVM</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2024-3</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>6090020009</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">011023                        </t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>661802</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>CDGD</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>2024-2</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>6030040007</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">160823                        </t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>662475</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>CDGD</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>2024-2</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>6030040040</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">250823                        </t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>662475</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>CDGD</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>2024-3</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>6030010019</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">101123                        </t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>662475</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>CDGD</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>2024-3</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>6030050071</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R171023                       </t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>662563</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>CDGD</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>2024-3</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>6050100002</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">291123                        </t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>662462</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>CDGD</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>2024-3</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>6050100007</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">011223                        </t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>662475</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>CDGD</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>2024-3</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>6090020009</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">181023                        </t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>662429</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>CDGD</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>2024-3</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>6090020009</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">181023                        </t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>662443</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>CDGD</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>2024-3</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>6090020009</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">181023                        </t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>662475</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>CDGD</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>2024-3</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>6090020009</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">181023                        </t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>662563</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>CDGD</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>2024-3</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>6090020011</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">120923                        </t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>662475</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>CDGD</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>2024-4</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>6040100010</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">061223                        </t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>662247</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>CDGD</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>2024-4</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>6040100010</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">061223                        </t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>662429</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>CDGD</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>2024-4</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>6040100010</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">061223                        </t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>662475</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>CDPI</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>2024-2</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>6030050074</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R250823                       </t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>662400</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>CDPI</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>2024-3</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>6030010026</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">051023                        </t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>662588</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>CDVM</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>2024-2</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>6030010019</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">010923                        </t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>662418</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>CDVM</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>2024-2</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>6030010129</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">060923                        </t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>662438</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>CDVM</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>2024-3</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>6030010019</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">051023                        </t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>662418</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>CDVM</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>2024-3</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>6030010019</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">061023                        </t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>662418</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>CDVM</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>2024-3</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>6030010019</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">121023                        </t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>662418</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>CDGD</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>CDGD</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>2024-3</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>6030050069</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R111023                       </t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>662566</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>CDGD</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>2024-3</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>6030050069</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R131023                       </t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>662566</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>CDPI</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>2024-2</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>6030050071</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R310823                       </t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>662574</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>CDGD</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>2024-4</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>6040100010</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">061223                        </t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>662439</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>CDGD</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>2024-4</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>6040100010</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">061223                        </t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>662440</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>CDVM</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>2025-3</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>6010550008</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">223/23                        </t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>175202</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>CDVM</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>2025-3</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>6011640001</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">250/23                        </t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>175202</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>CDVM</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
         <is>
           <t>2025-4</t>
         </is>
       </c>
-      <c r="D62" t="n">
+      <c r="D107" t="n">
         <v>6010010007</v>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="E107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">241123                        </t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>175202</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>CDVM</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>2025-4</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>6010550008</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">299/23                        </t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>175202</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>CDVM</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>2024-3</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>6030040073</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">241023                        </t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>662566</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>CDVM</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>2024-3</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>6090020009</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">061123                        </t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>662295</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>CDVM</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>2024-3</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>6090020009</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">061123                        </t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>662483</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>CDCDCO1</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>2024-2</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>6030010170</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">160823                        </t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>662586</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>6528</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>CDPI</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>2024-2</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>6030010208</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">140823                        </t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>662582</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>CDCDCF1</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>2025-4</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>6010010007</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">241123                        </t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>174759</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>CDCDCF1</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>2025-4</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>6010010007</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">241123                        </t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>175120</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>CDCDCF1</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>2025-4</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>6010010077</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">301123                        </t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>174759</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>CDCDCO1</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>2024-2</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>6030010026</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">120823                        </t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>662430</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>CDCDCO1</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>2025-3</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>6010010112</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">280923                        </t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>175085</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>CDCDCO1</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>2025-3</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>6010010112</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">280923                        </t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>175189</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>CDCDCO1</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>2025-4</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>6010010008</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">011123                        </t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>174893</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>CDCDCO1</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>2025-4</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>6010010008</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">011123                        </t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>175123</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>CDCDCO1</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>2025-4</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>6010010008</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">011123                        </t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>175124</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>CDCDCO1</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>2025-4</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>6010010008</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">141123                        </t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>175124</t>
+        </is>
+      </c>
+      <c r="G123" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>CDCDCO1</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>2025-4</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>6010010112</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">301023                        </t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>175089</t>
+        </is>
+      </c>
+      <c r="G124" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>CDCDCO1</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>2025-4</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>6010010112</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">301023                        </t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>175090</t>
+        </is>
+      </c>
+      <c r="G125" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>CDCDCO1</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>2025-4</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>6010010112</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">301023                        </t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>175091</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>CDCDCO1</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>2025-4</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>6010010112</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">301023                        </t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>175123</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>CDCDCO1</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>2025-4</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>6010010112</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">301023                        </t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>175176</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>CDCDCO1</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>2025-4</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>6010010112</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">301023                        </t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>175177</t>
+        </is>
+      </c>
+      <c r="G129" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>CDCDCO1</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>2025-4</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>6010010112</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">301023                        </t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>175189</t>
+        </is>
+      </c>
+      <c r="G130" t="n">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>CDGD</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>2025-3</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>6010010112</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">280923                        </t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>175117</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>CDGD</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>2025-3</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>6010010112</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">280923                        </t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>175125</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>CDGD</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>2025-4</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>6010010112</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">291223                        </t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>175117</t>
+        </is>
+      </c>
+      <c r="G133" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>CDVM</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>2025-4</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>6010010007</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">241123                        </t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>174758</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>CDVM</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>2025-4</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>6010010007</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">241123                        </t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>175121</t>
+        </is>
+      </c>
+      <c r="G135" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>CDVM</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>2025-4</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>6010010077</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">301123                        </t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>175175</t>
+        </is>
+      </c>
+      <c r="G136" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>CDVM</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>2025-4</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>6010010077</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">171223                        </t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>175175</t>
+        </is>
+      </c>
+      <c r="G137" t="n">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>CDVMZPA</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>2024-2</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>6030010007</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">070823                        </t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>662488</t>
+        </is>
+      </c>
+      <c r="G138" t="n">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>CDVMZPA</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>2024-2</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>6030050071</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R140823                       </t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>662488</t>
+        </is>
+      </c>
+      <c r="G139" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>CDCDCO1</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>2024-2</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>6030010007</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">220823                        </t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>662589</t>
+        </is>
+      </c>
+      <c r="G140" t="n">
+        <v>7020</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>CDCDCO1</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>2024-2</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>6030010007</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">010923                        </t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>662589</t>
+        </is>
+      </c>
+      <c r="G141" t="n">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>CDCDCO1</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>2024-2</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>6030010007</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">010923                        </t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>662592</t>
+        </is>
+      </c>
+      <c r="G142" t="n">
+        <v>4420</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>CDCDCO1</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>2024-2</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>6030010007</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">060923                        </t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>662592</t>
+        </is>
+      </c>
+      <c r="G143" t="n">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>CDPI</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>2024-2</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>6030010170</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">220823                        </t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>662591</t>
+        </is>
+      </c>
+      <c r="G144" t="n">
+        <v>7616</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>CDPI</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>2024-2</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>6030010170</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">220823                        </t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>662593</t>
+        </is>
+      </c>
+      <c r="G145" t="n">
+        <v>7072</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>CDGD</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>2025-4</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>6010010007</v>
+      </c>
+      <c r="E146" t="inlineStr">
         <is>
           <t xml:space="preserve">021123                        </t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>175184</t>
+        </is>
+      </c>
+      <c r="G146" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>CDGD</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>2025-4</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>6010010007</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">021123                        </t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
         <is>
           <t>175204</t>
         </is>
       </c>
-      <c r="G62" t="n">
+      <c r="G147" t="n">
         <v>1560</v>
       </c>
     </row>

--- a/tabla_final1.xlsx
+++ b/tabla_final1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G147"/>
+  <dimension ref="A1:G238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,11 +467,11 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CDGD</t>
+          <t>CDCDCO2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,91 +480,91 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>6050100007</v>
+        <v>6030040007</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve">011023                        </t>
+          <t xml:space="preserve">160823                        </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>662585</t>
+          <t>663413</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>15</v>
+        <v>612</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CDGD</t>
+          <t>CDCDCO2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2024-3</t>
+          <t>2024-2</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>6050100007</v>
+        <v>6030040040</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve">291123                        </t>
+          <t xml:space="preserve">160823                        </t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>662585</t>
+          <t>663413</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>647</v>
+        <v>480</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CDGD</t>
+          <t>CDCDCO2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2024-3</t>
+          <t>2024-2</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>6050100007</v>
+        <v>6030040073</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve">011223                        </t>
+          <t xml:space="preserve">250823                        </t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>662585</t>
+          <t>663413</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1018</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CDPI</t>
+          <t>CDCDCO2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,153 +573,153 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>6030010170</v>
+        <v>6030050070</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve">160823                        </t>
+          <t xml:space="preserve">R290923                       </t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>662587</t>
+          <t>663413</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2887</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CDPI</t>
+          <t>CDCDCO2</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2024-3</t>
+          <t>2024-2</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>6030010019</v>
+        <v>6040100001</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve">041223                        </t>
+          <t xml:space="preserve">280923                        </t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>662587</t>
+          <t>663413</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1928</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CDVM</t>
+          <t>CDCDCO2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2024-3</t>
+          <t>2024-2</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>6040100003</v>
+        <v>6040100009</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve">151023                        </t>
+          <t xml:space="preserve">030923                        </t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>662583</t>
+          <t>663413</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>130</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CDVM</t>
+          <t>CDCDCO2</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2024-3</t>
+          <t>2024-2</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>6040100003</v>
+        <v>6040100010</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve">201123                        </t>
+          <t xml:space="preserve">150823                        </t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>662583</t>
+          <t>663413</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>381</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CDVM</t>
+          <t>CDCDCO2</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2024-3</t>
+          <t>2024-2</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>6040100003</v>
+        <v>6090020009</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve">201123                        </t>
+          <t xml:space="preserve">240823                        </t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>662584</t>
+          <t>663413</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CDVM</t>
+          <t>CDCDCO2</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -728,29 +728,29 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>6090020012</v>
+        <v>6030010007</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve">011123                        </t>
+          <t xml:space="preserve">111023                        </t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>662584</t>
+          <t>663413</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>80</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CDVM</t>
+          <t>CDCDCO2</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -759,29 +759,29 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>6090020012</v>
+        <v>6030010019</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve">061023                        </t>
+          <t xml:space="preserve">011223                        </t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>662584</t>
+          <t>663413</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>80</v>
+        <v>720</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CDVM</t>
+          <t>CDCDCO2</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -790,20 +790,20 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>6090020012</v>
+        <v>6030010026</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve">121123                        </t>
+          <t xml:space="preserve">221023                        </t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>662584</t>
+          <t>663413</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>608</v>
+        <v>328</v>
       </c>
     </row>
     <row r="13">
@@ -812,38 +812,38 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CDGD</t>
+          <t>CDCDCO2</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2024-2</t>
+          <t>2024-3</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>6030010007</v>
+        <v>6090020011</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t xml:space="preserve">140823                        </t>
+          <t xml:space="preserve">120923                        </t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>661199</t>
+          <t>663413</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>20</v>
+        <v>324</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CDGD</t>
+          <t>CDCDCO1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -852,29 +852,29 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>6030010007</v>
+        <v>6030010019</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve">080923                        </t>
+          <t xml:space="preserve">010923                        </t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>661199</t>
+          <t>663393</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>15</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CDGD</t>
+          <t>CDCDCO1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -883,29 +883,29 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>6030010007</v>
+        <v>6030010019</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve">011023                        </t>
+          <t xml:space="preserve">010923                        </t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>661199</t>
+          <t>663396</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>5</v>
+        <v>288</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CDGD</t>
+          <t>CDCDCO1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -914,29 +914,29 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>6090020009</v>
+        <v>6030050069</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve">070823                        </t>
+          <t xml:space="preserve">R280923                       </t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>660377</t>
+          <t>663393</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>8</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CDGD</t>
+          <t>CDCDCO1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -945,158 +945,158 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>6090020009</v>
+        <v>6030050070</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t xml:space="preserve">070823                        </t>
+          <t xml:space="preserve">R280923                       </t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>661197</t>
+          <t>663396</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CDGD</t>
+          <t>CDCDCO1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2024-2</t>
+          <t>2024-3</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>6090020009</v>
+        <v>6030050071</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t xml:space="preserve">070823                        </t>
+          <t xml:space="preserve">R101023                       </t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>661199</t>
+          <t>663396</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CDGD</t>
+          <t>CDCDCO1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2024-3</t>
+          <t>2025-3</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>6010010077</v>
+        <v>6010010112</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t xml:space="preserve">060822                        </t>
+          <t xml:space="preserve">280923                        </t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>174779</t>
+          <t>175494</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>420</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CDGD</t>
+          <t>CDCDCO1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2024-3</t>
+          <t>2025-3</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>6030010019</v>
+        <v>6010550008</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve">101123                        </t>
+          <t xml:space="preserve">236/23                        </t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>661199</t>
+          <t>175494</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CDGD</t>
+          <t>CDCDCO1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2024-3</t>
+          <t>2025-3</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>6030050070</v>
+        <v>6010550008</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t xml:space="preserve">R211023                       </t>
+          <t xml:space="preserve">270/23                        </t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>661181</t>
+          <t>175494</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CDGD</t>
+          <t>CDCDCO2</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2024-3</t>
+          <t>2024-2</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -1104,366 +1104,366 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t xml:space="preserve">R211023                       </t>
+          <t xml:space="preserve">R290923                       </t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>661182</t>
+          <t>663315</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CDGD</t>
+          <t>CDCDCO2</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2024-3</t>
+          <t>2024-2</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>6030050070</v>
+        <v>6040100010</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t xml:space="preserve">R211023                       </t>
+          <t xml:space="preserve">150823                        </t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>661199</t>
+          <t>663315</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CDGD</t>
+          <t>CDCDCO2</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2024-3</t>
+          <t>2024-2</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6030050071</v>
+        <v>6040100010</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t xml:space="preserve">R171023                       </t>
+          <t xml:space="preserve">150823                        </t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>661199</t>
+          <t>663322</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CDGD</t>
+          <t>CDCDCO2</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2024-3</t>
+          <t>2024-2</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>6050100002</v>
+        <v>6050100007</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t xml:space="preserve">291123                        </t>
+          <t xml:space="preserve">290923                        </t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>661181</t>
+          <t>663004</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>68</v>
+        <v>740</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CDGD</t>
+          <t>CDCDCO2</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2025-1</t>
+          <t>2024-2</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>6010900031</v>
+        <v>6050100007</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t xml:space="preserve">210323                        </t>
+          <t xml:space="preserve">290923                        </t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>174676</t>
+          <t>663323</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CDGD</t>
+          <t>CDCDCO2</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2025-1</t>
+          <t>2024-3</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>6010900031</v>
+        <v>6030010019</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t xml:space="preserve">210323                        </t>
+          <t xml:space="preserve">011223                        </t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>174964</t>
+          <t>663315</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>20</v>
+        <v>432</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CDGD</t>
+          <t>CDCDCO2</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2025-2</t>
+          <t>2024-3</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>6011570001</v>
+        <v>6030010019</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t xml:space="preserve">090423                        </t>
+          <t xml:space="preserve">011223                        </t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>174927</t>
+          <t>663322</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>10</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>CDGD</t>
+          <t>CDCDMZ1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2025-3</t>
+          <t>2024-2</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>6010010077</v>
+        <v>6030050070</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t xml:space="preserve">090923                        </t>
+          <t xml:space="preserve">R270923                       </t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>174779</t>
+          <t>662960</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>28</v>
+        <v>260</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>CDGD</t>
+          <t>CDCDMZ1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2025-3</t>
+          <t>2024-2</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>6010010112</v>
+        <v>6030050074</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t xml:space="preserve">280923                        </t>
+          <t xml:space="preserve">R300823                       </t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>175067</t>
+          <t>662400</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>CDGD</t>
+          <t>CDCDMZ1</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2025-4</t>
+          <t>2024-2</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>6010010077</v>
+        <v>6050100001</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t xml:space="preserve">311023                        </t>
+          <t xml:space="preserve">290923                        </t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>174779</t>
+          <t>662400</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>CDGD</t>
+          <t>CDCDMZ1</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2025-4</t>
+          <t>2024-2</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>6010010077</v>
+        <v>6050100001</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t xml:space="preserve">111123                        </t>
+          <t xml:space="preserve">290923                        </t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>174779</t>
+          <t>663353</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>CDGD</t>
+          <t>CDCDMZ1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2025-4</t>
+          <t>2024-2</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>6010010077</v>
+        <v>6090020009</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t xml:space="preserve">231223                        </t>
+          <t xml:space="preserve">070823                        </t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>174779</t>
+          <t>663262</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>358</v>
+        <v>322</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>CDVM</t>
+          <t>CDCDMZ1</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1472,463 +1472,463 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>6030010007</v>
+        <v>6090020009</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t xml:space="preserve">011023                        </t>
+          <t xml:space="preserve">070823                        </t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>661198</t>
+          <t>663418</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>373</v>
+        <v>327</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>CDVM</t>
+          <t>CDCDMZ1</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2024-2</t>
+          <t>2024-4</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>6030010019</v>
+        <v>6040100010</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t xml:space="preserve">010923                        </t>
+          <t xml:space="preserve">040124                        </t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>661198</t>
+          <t>662960</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>388</v>
+        <v>341</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>CDVM</t>
+          <t>CDCDMZ1</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2024-3</t>
+          <t>2025-3</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>6090020009</v>
+        <v>6010550008</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t xml:space="preserve">011023                        </t>
+          <t xml:space="preserve">201/23                        </t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>661198</t>
+          <t>175495</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>6</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>438</v>
+        <v>380</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>CDVM</t>
+          <t>CDGD</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2025-1</t>
+          <t>2024-2</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>6010040111</v>
+        <v>6030050071</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t xml:space="preserve">240223                        </t>
+          <t xml:space="preserve">R250923                       </t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>174925</t>
+          <t>663014</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>450</v>
+        <v>385</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>CDVM</t>
+          <t>CDGD</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2025-1</t>
+          <t>2024-2</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>6011570002</v>
+        <v>6030050071</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t xml:space="preserve">140323                        </t>
+          <t xml:space="preserve">R250923                       </t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>174609</t>
+          <t>663349</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>457</v>
+        <v>411</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>CDVM</t>
+          <t>CDGD</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2025-1</t>
+          <t>2024-2</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>6011570002</v>
+        <v>6040100010</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t xml:space="preserve">140323                        </t>
+          <t xml:space="preserve">150823                        </t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>175108</t>
+          <t>662893</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>473</v>
+        <v>440</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>CDVM</t>
+          <t>CDPI</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2025-3</t>
+          <t>2024-2</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>6010140007</v>
+        <v>6030010170</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t xml:space="preserve">256/23                        </t>
+          <t xml:space="preserve">010923                        </t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>175122</t>
+          <t>663399</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>16</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>503</v>
+        <v>559</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>CDVM</t>
+          <t>CDPI</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2025-3</t>
+          <t>2024-3</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>6010140008</v>
+        <v>6030010007</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t xml:space="preserve">258/23                        </t>
+          <t xml:space="preserve">121023                        </t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>175122</t>
+          <t>663399</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>16</v>
+        <v>780</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>518</v>
+        <v>4</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>CDVM</t>
+          <t>CDCDCO1</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2025-3</t>
+          <t>2024-2</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>6010550008</v>
+        <v>6030010019</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t xml:space="preserve">223/23                        </t>
+          <t xml:space="preserve">010923                        </t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>175122</t>
+          <t>662183</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>64</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>533</v>
+        <v>14</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>CDVM</t>
+          <t>CDCDCO1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2025-3</t>
+          <t>2024-2</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>6011640001</v>
+        <v>6030040007</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t xml:space="preserve">250/23                        </t>
+          <t xml:space="preserve">160823                        </t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>175122</t>
+          <t>662183</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>547</v>
+        <v>28</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>CDVM</t>
+          <t>CDCDCO1</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2025-4</t>
+          <t>2024-2</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>6010010007</v>
+        <v>6030050070</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t xml:space="preserve">241123                        </t>
+          <t xml:space="preserve">R280923                       </t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>175108</t>
+          <t>663388</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>562</v>
+        <v>44</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>CDVM</t>
+          <t>CDCDCO1</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2025-4</t>
+          <t>2024-3</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>6010010077</v>
+        <v>6030010007</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t xml:space="preserve">301123                        </t>
+          <t xml:space="preserve">071023                        </t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>175108</t>
+          <t>662183</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>12</v>
+        <v>280</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>CDGD</t>
+          <t>CDCDCO1</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2024-2</t>
+          <t>2024-3</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>6040100010</v>
+        <v>6030010007</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t xml:space="preserve">180723                        </t>
+          <t xml:space="preserve">111023                        </t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>662182</t>
+          <t>662183</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>15</v>
+        <v>240</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>CDGD</t>
+          <t>CDCDCO1</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2024-2</t>
+          <t>2024-3</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>6040100010</v>
+        <v>6030010019</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t xml:space="preserve">150823                        </t>
+          <t xml:space="preserve">061123                        </t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>662228</t>
+          <t>662183</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>20</v>
+        <v>249</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>23</v>
+        <v>128</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>CDGD</t>
+          <t>CDCDCO1</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2024-2</t>
+          <t>2024-3</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>6090020009</v>
+        <v>6030010019</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t xml:space="preserve">070823                        </t>
+          <t xml:space="preserve">061123                        </t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>662232</t>
+          <t>663388</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>33</v>
+        <v>288</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>27</v>
+        <v>129</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>CDGD</t>
+          <t>CDCDCO1</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1937,29 +1937,29 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>6030050071</v>
+        <v>6030010019</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t xml:space="preserve">R171023                       </t>
+          <t xml:space="preserve">061123                        </t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>662182</t>
+          <t>663391</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>43</v>
+        <v>164</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>CDGD</t>
+          <t>CDCDCO1</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1968,29 +1968,29 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>6040100010</v>
+        <v>6030010026</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t xml:space="preserve">261023                        </t>
+          <t xml:space="preserve">051023                        </t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>662182</t>
+          <t>662183</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>15</v>
+        <v>108</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>51</v>
+        <v>208</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>CDGD</t>
+          <t>CDCDCO1</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1999,184 +1999,184 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>6040100010</v>
+        <v>6030050071</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t xml:space="preserve">011123                        </t>
+          <t xml:space="preserve">R101023                       </t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>662182</t>
+          <t>663388</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>59</v>
+        <v>212</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>CDGD</t>
+          <t>CDCDMZ1</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2024-3</t>
+          <t>2024-2</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>6050100002</v>
+        <v>6030050070</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t xml:space="preserve">291123                        </t>
+          <t xml:space="preserve">R270923                       </t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>662182</t>
+          <t>661182</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>67</v>
+        <v>220</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>CDGD</t>
+          <t>CDCDMZ1</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2024-3</t>
+          <t>2025-2</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>6090020009</v>
+        <v>6010140007</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t xml:space="preserve">181023                        </t>
+          <t xml:space="preserve">136/23                        </t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>662182</t>
+          <t>175330</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>70</v>
+        <v>230</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>CDGD</t>
+          <t>CDCDMZ1</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2024-3</t>
+          <t>2025-2</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>6090020009</v>
+        <v>6010140008</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t xml:space="preserve">181023                        </t>
+          <t xml:space="preserve">137/23                        </t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>662228</t>
+          <t>175330</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>60</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>71</v>
+        <v>240</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>CDGD</t>
+          <t>CDCDMZ1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2024-3</t>
+          <t>2025-3</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>6090020009</v>
+        <v>6010550008</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t xml:space="preserve">181023                        </t>
+          <t xml:space="preserve">201/23                        </t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>662232</t>
+          <t>175330</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>7</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>75</v>
+        <v>260</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>CDGD</t>
+          <t>CDCDMZ1</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2024-4</t>
+          <t>2025-3</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>6040100010</v>
+        <v>6011640001</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t xml:space="preserve">061223                        </t>
+          <t xml:space="preserve">191/23                        </t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>662182</t>
+          <t>175330</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>92</v>
+        <v>271</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>CDPI</t>
+          <t>CDGD</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2185,91 +2185,91 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>6030010007</v>
+        <v>6030050070</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t xml:space="preserve">150923                        </t>
+          <t xml:space="preserve">R220923                       </t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>662183</t>
+          <t>661181</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>520</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>116</v>
+        <v>303</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>CDPI</t>
+          <t>CDGD</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>2024-3</t>
+          <t>2024-2</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>6030010019</v>
+        <v>6030050071</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t xml:space="preserve">041223                        </t>
+          <t xml:space="preserve">R250923                       </t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>662183</t>
+          <t>662182</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>288</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>124</v>
+        <v>307</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>CDPI</t>
+          <t>CDGD</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2024-3</t>
+          <t>2024-2</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>6030010026</v>
+        <v>6030050071</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t xml:space="preserve">051023                        </t>
+          <t xml:space="preserve">R250923                       </t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>662183</t>
+          <t>663387</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>108</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>128</v>
+        <v>323</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>CDVM</t>
+          <t>CDGD</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2278,184 +2278,184 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>6030010007</v>
+        <v>6090020009</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t xml:space="preserve">011023                        </t>
+          <t xml:space="preserve">070823                        </t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>661681</t>
+          <t>662182</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>260</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>130</v>
+        <v>333</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>CDVM</t>
+          <t>CDGD</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2024-2</t>
+          <t>2024-3</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>6030010007</v>
+        <v>6040100010</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t xml:space="preserve">011023                        </t>
+          <t xml:space="preserve">261023                        </t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>661987</t>
+          <t>662182</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>120</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>133</v>
+        <v>343</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>CDVM</t>
+          <t>CDGD</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2024-2</t>
+          <t>2024-3</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>6030010007</v>
+        <v>6040100010</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t xml:space="preserve">011023                        </t>
+          <t xml:space="preserve">011123                        </t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>662186</t>
+          <t>662182</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>136</v>
+        <v>351</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>CDVM</t>
+          <t>CDGD</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2024-2</t>
+          <t>2024-3</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>6030010019</v>
+        <v>6050100002</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t xml:space="preserve">010923                        </t>
+          <t xml:space="preserve">291123                        </t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>661681</t>
+          <t>661181</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>144</v>
+        <v>68</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>138</v>
+        <v>353</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>CDVM</t>
+          <t>CDGD</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2024-2</t>
+          <t>2024-3</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>6030010019</v>
+        <v>6050100002</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t xml:space="preserve">010923                        </t>
+          <t xml:space="preserve">291123                        </t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>661987</t>
+          <t>662182</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>108</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>141</v>
+        <v>363</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>CDVM</t>
+          <t>CDGD</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2024-2</t>
+          <t>2024-4</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>6030010019</v>
+        <v>6040100010</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t xml:space="preserve">010923                        </t>
+          <t xml:space="preserve">040124                        </t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>662186</t>
+          <t>662182</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>146</v>
+        <v>375</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>CDVM</t>
+          <t>CDPI</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2464,7 +2464,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>6030010026</v>
+        <v>6030010170</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2473,20 +2473,20 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>661987</t>
+          <t>662759</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>108</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>152</v>
+        <v>445</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>CDVM</t>
+          <t>CDPI</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2495,25 +2495,25 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>6030010129</v>
+        <v>6030010208</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t xml:space="preserve">060923                        </t>
+          <t xml:space="preserve">010923                        </t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>661681</t>
+          <t>662759</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>29</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>178</v>
+        <v>466</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -2526,25 +2526,25 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>6030040007</v>
+        <v>6030010170</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t xml:space="preserve">160823                        </t>
+          <t xml:space="preserve">150923                        </t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>661987</t>
+          <t>663385</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>181</v>
+        <v>476</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -2557,25 +2557,25 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>6030040007</v>
+        <v>6030010170</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t xml:space="preserve">160823                        </t>
+          <t xml:space="preserve">210923                        </t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>662186</t>
+          <t>663385</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>12</v>
+        <v>272</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>185</v>
+        <v>486</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -2588,25 +2588,25 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>6090020011</v>
+        <v>6030010170</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t xml:space="preserve">070823                        </t>
+          <t xml:space="preserve">250923                        </t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>661802</t>
+          <t>663385</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3</v>
+        <v>272</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>194</v>
+        <v>496</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -2615,29 +2615,29 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>2024-3</t>
+          <t>2024-2</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>6030010026</v>
+        <v>6030010170</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t xml:space="preserve">061123                        </t>
+          <t xml:space="preserve">031023                        </t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>661987</t>
+          <t>663385</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>36</v>
+        <v>199</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>197</v>
+        <v>506</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -2650,25 +2650,25 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>6030010026</v>
+        <v>6030010019</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t xml:space="preserve">061123                        </t>
+          <t xml:space="preserve">251123                        </t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>662186</t>
+          <t>663385</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>36</v>
+        <v>144</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>210</v>
+        <v>516</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -2681,25 +2681,25 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>6030040040</v>
+        <v>6030010019</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t xml:space="preserve">241023                        </t>
+          <t xml:space="preserve">011223                        </t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>661987</t>
+          <t>663385</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>16</v>
+        <v>144</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>213</v>
+        <v>526</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>6030040040</v>
+        <v>6030010019</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t xml:space="preserve">241023                        </t>
+          <t xml:space="preserve">040124                        </t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>662186</t>
+          <t>663385</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>12</v>
+        <v>144</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>221</v>
+        <v>536</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -2743,29 +2743,29 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>6030050070</v>
+        <v>6050100002</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t xml:space="preserve">R231123                       </t>
+          <t xml:space="preserve">291123                        </t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>662186</t>
+          <t>663385</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>20</v>
+        <v>68</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>240</v>
+        <v>10</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>CDVM</t>
+          <t>CDCDCF1</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2774,60 +2774,60 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>6050100007</v>
+        <v>6030330002</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t xml:space="preserve">291123                        </t>
+          <t xml:space="preserve">R221123                       </t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>661681</t>
+          <t>663376</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>241</v>
+        <v>15</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>CDVM</t>
+          <t>CDCDCO1</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>2024-3</t>
+          <t>2024-2</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>6050100007</v>
+        <v>6030010170</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t xml:space="preserve">291123                        </t>
+          <t xml:space="preserve">040923                        </t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>661802</t>
+          <t>663015</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2</v>
+        <v>136</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>257</v>
+        <v>27</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>CDVM</t>
+          <t>CDCDCO1</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2836,60 +2836,60 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>6090020009</v>
+        <v>6030010007</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t xml:space="preserve">011023                        </t>
+          <t xml:space="preserve">111023                        </t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>661802</t>
+          <t>663015</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>8</v>
+        <v>140</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>7</v>
+        <v>111</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>CDGD</t>
+          <t>CDCDCO1</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>2024-2</t>
+          <t>2024-3</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>6030040007</v>
+        <v>6030010019</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t xml:space="preserve">160823                        </t>
+          <t xml:space="preserve">061123                        </t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>662475</t>
+          <t>663015</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>17</v>
+        <v>164</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>CDGD</t>
+          <t>CDCDCO2</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2902,185 +2902,185 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t xml:space="preserve">250823                        </t>
+          <t xml:space="preserve">160823                        </t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>662475</t>
+          <t>663298</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3</v>
+        <v>80</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>27</v>
+        <v>169</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>CDGD</t>
+          <t>CDCDCO2</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>2024-3</t>
+          <t>2024-2</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>6030010019</v>
+        <v>6040100010</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t xml:space="preserve">101123                        </t>
+          <t xml:space="preserve">150823                        </t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>662475</t>
+          <t>662962</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>36</v>
+        <v>100</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>48</v>
+        <v>176</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>CDGD</t>
+          <t>CDCDCO2</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2024-3</t>
+          <t>2024-2</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>6030050071</v>
+        <v>6040100010</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t xml:space="preserve">R171023                       </t>
+          <t xml:space="preserve">150823                        </t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>662563</t>
+          <t>663298</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>18</v>
+        <v>144</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>66</v>
+        <v>198</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>CDGD</t>
+          <t>CDCDCO2</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2024-3</t>
+          <t>2024-2</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>6050100002</v>
+        <v>6050100007</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t xml:space="preserve">291123                        </t>
+          <t xml:space="preserve">290923                        </t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>662462</t>
+          <t>663288</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>33</v>
+        <v>150</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>77</v>
+        <v>224</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>CDGD</t>
+          <t>CDCDCO2</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>2024-3</t>
+          <t>2024-2</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>6050100007</v>
+        <v>6090020009</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t xml:space="preserve">011223                        </t>
+          <t xml:space="preserve">240823                        </t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>662475</t>
+          <t>663298</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>4</v>
+        <v>117</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>83</v>
+        <v>244</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>CDGD</t>
+          <t>CDCDMZ1</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>2024-3</t>
+          <t>2024-2</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>6090020009</v>
+        <v>6030050070</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t xml:space="preserve">181023                        </t>
+          <t xml:space="preserve">R270923                       </t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>662429</t>
+          <t>663129</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>20</v>
+        <v>334</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>85</v>
+        <v>252</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>CDGD</t>
+          <t>CDCDMZ1</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>2024-3</t>
+          <t>2024-2</t>
         </is>
       </c>
       <c r="D86" t="n">
@@ -3088,7 +3088,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t xml:space="preserve">181023                        </t>
+          <t xml:space="preserve">070823                        </t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -3102,16 +3102,16 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>87</v>
+        <v>261</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>CDGD</t>
+          <t>CDCDMZ1</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>2024-3</t>
+          <t>2024-2</t>
         </is>
       </c>
       <c r="D87" t="n">
@@ -3119,21 +3119,21 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t xml:space="preserve">181023                        </t>
+          <t xml:space="preserve">070823                        </t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>662475</t>
+          <t>663345</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>3</v>
+        <v>130</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>88</v>
+        <v>266</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -3142,29 +3142,29 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>2024-3</t>
+          <t>2024-2</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>6090020009</v>
+        <v>6030050070</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t xml:space="preserve">181023                        </t>
+          <t xml:space="preserve">R220923                       </t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>662563</t>
+          <t>663013</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>97</v>
+        <v>269</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -3173,29 +3173,29 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>2024-3</t>
+          <t>2024-2</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>6090020011</v>
+        <v>6030050070</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t xml:space="preserve">120923                        </t>
+          <t xml:space="preserve">R220923                       </t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>662475</t>
+          <t>663258</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2</v>
+        <v>455</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>110</v>
+        <v>311</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -3204,29 +3204,29 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>2024-4</t>
+          <t>2024-2</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>6040100010</v>
+        <v>6030050071</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t xml:space="preserve">061223                        </t>
+          <t xml:space="preserve">R250923                       </t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>662247</t>
+          <t>663411</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>20</v>
+        <v>144</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>113</v>
+        <v>335</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -3235,29 +3235,29 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>2024-4</t>
+          <t>2024-2</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>6040100010</v>
+        <v>6050100007</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t xml:space="preserve">061223                        </t>
+          <t xml:space="preserve">011023                        </t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>662429</t>
+          <t>663411</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>117</v>
+        <v>343</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -3266,64 +3266,64 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>2024-4</t>
+          <t>2024-3</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>6040100010</v>
+        <v>6050100002</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t xml:space="preserve">061223                        </t>
+          <t xml:space="preserve">291123                        </t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>662475</t>
+          <t>663289</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>CDPI</t>
+          <t>CDCDCF1</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>2024-2</t>
+          <t>2024-3</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>6030050074</v>
+        <v>6030010019</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t xml:space="preserve">R250823                       </t>
+          <t xml:space="preserve">211023                        </t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>662400</t>
+          <t>662841</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>179</v>
+        <v>1</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>CDPI</t>
+          <t>CDCDCF1</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3332,463 +3332,463 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>6030010026</v>
+        <v>6030010019</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t xml:space="preserve">051023                        </t>
+          <t xml:space="preserve">101123                        </t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>662588</t>
+          <t>662841</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>173</v>
+        <v>38</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>182</v>
+        <v>1</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>CDVM</t>
+          <t>CDCDCF1</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>2024-2</t>
+          <t>2024-3</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>6030010019</v>
+        <v>6030050072</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t xml:space="preserve">010923                        </t>
+          <t xml:space="preserve">R231023                       </t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>662418</t>
+          <t>663178</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>126</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>194</v>
+        <v>9</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>CDVM</t>
+          <t>CDCDCF1</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>2024-2</t>
+          <t>2024-3</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>6030010129</v>
+        <v>6030050072</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t xml:space="preserve">060923                        </t>
+          <t xml:space="preserve">R231023                       </t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>662438</t>
+          <t>663317</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>174</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>222</v>
+        <v>10</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>CDVM</t>
+          <t>CDCDCO2</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>2024-3</t>
+          <t>2024-2</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>6030010019</v>
+        <v>6030050070</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t xml:space="preserve">051023                        </t>
+          <t xml:space="preserve">R290923                       </t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>662418</t>
+          <t>663168</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>144</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>232</v>
+        <v>30</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>CDVM</t>
+          <t>CDCDCO2</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>2024-3</t>
+          <t>2024-2</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>6030010019</v>
+        <v>6050100007</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t xml:space="preserve">061023                        </t>
+          <t xml:space="preserve">290923                        </t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>662418</t>
+          <t>663168</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>432</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>242</v>
+        <v>32</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>CDVM</t>
+          <t>CDCDCO2</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>2024-3</t>
+          <t>2024-2</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>6030010019</v>
+        <v>6050100007</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t xml:space="preserve">121023                        </t>
+          <t xml:space="preserve">290923                        </t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>662418</t>
+          <t>663180</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>168</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>CDGD</t>
+          <t>CDCDCO2</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>2024-3</t>
+          <t>2024-2</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>6030050069</v>
+        <v>6050100007</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t xml:space="preserve">R111023                       </t>
+          <t xml:space="preserve">290923                        </t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>662566</t>
+          <t>663257</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>136</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>CDGD</t>
+          <t>CDCDCO2</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>2024-3</t>
+          <t>2024-2</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>6030050069</v>
+        <v>6050100007</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t xml:space="preserve">R131023                       </t>
+          <t xml:space="preserve">290923                        </t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>662566</t>
+          <t>663263</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>136</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>CDPI</t>
+          <t>CDCDCO2</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>2024-2</t>
+          <t>2024-3</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>6030050071</v>
+        <v>6030050072</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t xml:space="preserve">R310823                       </t>
+          <t xml:space="preserve">R231023                       </t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>662574</t>
+          <t>663168</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>164</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>CDGD</t>
+          <t>CDCDCS1</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>2024-4</t>
+          <t>2024-2</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>6040100010</v>
+        <v>6050100007</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t xml:space="preserve">061223                        </t>
+          <t xml:space="preserve">011023                        </t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>662439</t>
+          <t>663293</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>CDGD</t>
+          <t>CDCDCS1</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>2024-4</t>
+          <t>2024-3</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>6040100010</v>
+        <v>6090020009</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t xml:space="preserve">061223                        </t>
+          <t xml:space="preserve">120923                        </t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>662440</t>
+          <t>663293</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>120</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>CDVM</t>
+          <t>CDCDCS1</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>2025-3</t>
+          <t>2024-3</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>6010550008</v>
+        <v>6090020009</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t xml:space="preserve">223/23                        </t>
+          <t xml:space="preserve">120923                        </t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>175202</t>
+          <t>663313</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>160</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>CDVM</t>
+          <t>CDGD</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>2025-3</t>
+          <t>2024-2</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>6011640001</v>
+        <v>6030050070</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t xml:space="preserve">250/23                        </t>
+          <t xml:space="preserve">R290923                       </t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>175202</t>
+          <t>663266</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>83</v>
+        <v>40</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>CDVM</t>
+          <t>CDGD</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>2025-4</t>
+          <t>2024-2</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>6010010007</v>
+        <v>6030050070</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t xml:space="preserve">241123                        </t>
+          <t xml:space="preserve">R290923                       </t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>175202</t>
+          <t>663294</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1440</v>
+        <v>80</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>CDVM</t>
+          <t>CDGD</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>2025-4</t>
+          <t>2024-2</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>6010550008</v>
+        <v>6050100007</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t xml:space="preserve">299/23                        </t>
+          <t xml:space="preserve">011023                        </t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>175202</t>
+          <t>663294</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>313</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>CDVM</t>
+          <t>CDGD</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -3797,29 +3797,29 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>6030040073</v>
+        <v>6030050071</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t xml:space="preserve">241023                        </t>
+          <t xml:space="preserve">R171023                       </t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>662566</t>
+          <t>663266</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>68</v>
+        <v>18</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>CDVM</t>
+          <t>CDGD</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -3828,29 +3828,29 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>6090020009</v>
+        <v>6030050071</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t xml:space="preserve">061123                        </t>
+          <t xml:space="preserve">R171023                       </t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>662295</t>
+          <t>663294</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>50</v>
+        <v>18</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>1</v>
+        <v>135</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>CDVM</t>
+          <t>CDGD</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -3859,180 +3859,180 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>6090020009</v>
+        <v>6030050072</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t xml:space="preserve">061123                        </t>
+          <t xml:space="preserve">R251023                       </t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>662483</t>
+          <t>663266</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>43</v>
+        <v>18</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>1</v>
+        <v>137</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>CDCDCO1</t>
+          <t>CDGD</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>2024-2</t>
+          <t>2024-3</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>6030010170</v>
+        <v>6030050072</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t xml:space="preserve">160823                        </t>
+          <t xml:space="preserve">R251023                       </t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>662586</t>
+          <t>663294</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>6528</v>
+        <v>18</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>8</v>
+        <v>147</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>CDPI</t>
+          <t>CDGD</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>2024-2</t>
+          <t>2024-3</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>6030010208</v>
+        <v>6090020009</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t xml:space="preserve">140823                        </t>
+          <t xml:space="preserve">181023                        </t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>662582</t>
+          <t>663294</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1520</v>
+        <v>55</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>1</v>
+        <v>157</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>CDCDCF1</t>
+          <t>CDGD</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>2025-4</t>
+          <t>2024-4</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>6010010007</v>
+        <v>6090020009</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t xml:space="preserve">241123                        </t>
+          <t xml:space="preserve">171223                        </t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>174759</t>
+          <t>663294</t>
         </is>
       </c>
       <c r="G114" t="n">
-        <v>300</v>
+        <v>35</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>CDCDCF1</t>
+          <t>CDCDCO1</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>2025-4</t>
+          <t>2024-2</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>6010010007</v>
+        <v>6030050069</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t xml:space="preserve">241123                        </t>
+          <t xml:space="preserve">R280923                       </t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>175120</t>
+          <t>663245</t>
         </is>
       </c>
       <c r="G115" t="n">
-        <v>240</v>
+        <v>34</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>CDCDCO1</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>2024-2</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>6030050070</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R280923                       </t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>663245</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
         <v>20</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>CDCDCF1</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>2025-4</t>
-        </is>
-      </c>
-      <c r="D116" t="n">
-        <v>6010010077</v>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t xml:space="preserve">301123                        </t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>174759</t>
-        </is>
-      </c>
-      <c r="G116" t="n">
-        <v>216</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -4045,25 +4045,25 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>6030010026</v>
+        <v>6050100007</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t xml:space="preserve">120823                        </t>
+          <t xml:space="preserve">011023                        </t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>662430</t>
+          <t>663245</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>108</v>
+        <v>11</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -4072,29 +4072,29 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>2025-3</t>
+          <t>2024-3</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>6010010112</v>
+        <v>6030010007</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t xml:space="preserve">280923                        </t>
+          <t xml:space="preserve">111023                        </t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>175085</t>
+          <t>663245</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>240</v>
+        <v>520</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -4103,29 +4103,29 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>2025-3</t>
+          <t>2024-3</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>6010010112</v>
+        <v>6030010019</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t xml:space="preserve">280923                        </t>
+          <t xml:space="preserve">061123                        </t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>175189</t>
+          <t>663245</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>495</v>
+        <v>180</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -4134,29 +4134,29 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>2025-4</t>
+          <t>2024-3</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>6010010008</v>
+        <v>6030010026</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t xml:space="preserve">011123                        </t>
+          <t xml:space="preserve">051023                        </t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>174893</t>
+          <t>663245</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>150</v>
+        <v>32</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -4165,29 +4165,29 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>2025-4</t>
+          <t>2024-3</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>6010010008</v>
+        <v>6030010170</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t xml:space="preserve">011123                        </t>
+          <t xml:space="preserve">071023                        </t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>175123</t>
+          <t>663245</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>150</v>
+        <v>272</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>106</v>
+        <v>192</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -4196,277 +4196,277 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>2025-4</t>
+          <t>2024-3</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>6010010008</v>
+        <v>6090020009</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t xml:space="preserve">011123                        </t>
+          <t xml:space="preserve">011023                        </t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>175124</t>
+          <t>663245</t>
         </is>
       </c>
       <c r="G122" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>125</v>
+        <v>202</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>CDCDCO1</t>
+          <t>CDCDCO2</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>2025-4</t>
+          <t>2024-2</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>6010010008</v>
+        <v>6030010170</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t xml:space="preserve">141123                        </t>
+          <t xml:space="preserve">011023                        </t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>175124</t>
+          <t>663409</t>
         </is>
       </c>
       <c r="G123" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>137</v>
+        <v>203</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>CDCDCO1</t>
+          <t>CDCDCO2</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>2025-4</t>
+          <t>2024-2</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>6010010112</v>
+        <v>6050100007</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t xml:space="preserve">301023                        </t>
+          <t xml:space="preserve">290923                        </t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>175089</t>
+          <t>663170</t>
         </is>
       </c>
       <c r="G124" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>138</v>
+        <v>222</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>CDCDCO1</t>
+          <t>CDCDCS1</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>2025-4</t>
+          <t>2024-2</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>6010010112</v>
+        <v>6050100007</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t xml:space="preserve">301023                        </t>
+          <t xml:space="preserve">011023                        </t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>175090</t>
+          <t>663320</t>
         </is>
       </c>
       <c r="G125" t="n">
-        <v>180</v>
+        <v>10</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>139</v>
+        <v>229</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>CDCDCO1</t>
+          <t>CDCDCS1</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>2025-4</t>
+          <t>2024-3</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>6010010112</v>
+        <v>6090020009</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t xml:space="preserve">301023                        </t>
+          <t xml:space="preserve">120923                        </t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>175091</t>
+          <t>663320</t>
         </is>
       </c>
       <c r="G126" t="n">
-        <v>120</v>
+        <v>20</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>143</v>
+        <v>239</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>CDCDCO1</t>
+          <t>CDGD</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>2025-4</t>
+          <t>2024-2</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>6010010112</v>
+        <v>6030050070</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t xml:space="preserve">301023                        </t>
+          <t xml:space="preserve">R290923                       </t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>175123</t>
+          <t>663171</t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>60</v>
+        <v>260</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>147</v>
+        <v>249</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>CDCDCO1</t>
+          <t>CDGD</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>2025-4</t>
+          <t>2024-3</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>6010010112</v>
+        <v>6030010208</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t xml:space="preserve">301023                        </t>
+          <t xml:space="preserve">081023                        </t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>175176</t>
+          <t>663246</t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>60</v>
+        <v>13</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>148</v>
+        <v>256</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>CDCDCO1</t>
+          <t>CDGD</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>2025-4</t>
+          <t>2024-3</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>6010010112</v>
+        <v>6030010208</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t xml:space="preserve">301023                        </t>
+          <t xml:space="preserve">181023                        </t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>175177</t>
+          <t>663246</t>
         </is>
       </c>
       <c r="G129" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>149</v>
+        <v>267</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>CDCDCO1</t>
+          <t>CDGD</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>2025-4</t>
+          <t>2024-3</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>6010010112</v>
+        <v>6030050071</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t xml:space="preserve">301023                        </t>
+          <t xml:space="preserve">R171023                       </t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>175189</t>
+          <t>663171</t>
         </is>
       </c>
       <c r="G130" t="n">
-        <v>285</v>
+        <v>56</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>159</v>
+        <v>274</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -4475,29 +4475,29 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>2025-3</t>
+          <t>2024-3</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>6010010112</v>
+        <v>6030050071</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t xml:space="preserve">280923                        </t>
+          <t xml:space="preserve">R191023                       </t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>175117</t>
+          <t>663171</t>
         </is>
       </c>
       <c r="G131" t="n">
-        <v>96</v>
+        <v>16</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>164</v>
+        <v>281</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -4506,29 +4506,29 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>2025-3</t>
+          <t>2024-3</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>6010010112</v>
+        <v>6030050072</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t xml:space="preserve">280923                        </t>
+          <t xml:space="preserve">R251023                       </t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>175125</t>
+          <t>663171</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>178</v>
+        <v>291</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -4537,91 +4537,91 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>2025-4</t>
+          <t>2024-3</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>6010010112</v>
+        <v>6040100001</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t xml:space="preserve">291223                        </t>
+          <t xml:space="preserve">161123                        </t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>175117</t>
+          <t>663246</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>190</v>
+        <v>305</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>CDVM</t>
+          <t>CDGD</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>2025-4</t>
+          <t>2024-3</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>6010010007</v>
+        <v>6040100003</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t xml:space="preserve">241123                        </t>
+          <t xml:space="preserve">201123                        </t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>174758</t>
+          <t>663246</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>199</v>
+        <v>312</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>CDVM</t>
+          <t>CDGD</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>2025-4</t>
+          <t>2024-3</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>6010010007</v>
+        <v>6090020010</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t xml:space="preserve">241123                        </t>
+          <t xml:space="preserve">161223                        </t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>175121</t>
+          <t>663246</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>300</v>
+        <v>29</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>222</v>
+        <v>317</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -4630,29 +4630,29 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>2025-4</t>
+          <t>2024-2</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>6010010077</v>
+        <v>6030010170</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t xml:space="preserve">301123                        </t>
+          <t xml:space="preserve">031023                        </t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>175175</t>
+          <t>663243</t>
         </is>
       </c>
       <c r="G136" t="n">
-        <v>43</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>241</v>
+        <v>324</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -4661,188 +4661,188 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>2025-4</t>
+          <t>2024-3</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>6010010077</v>
+        <v>6030010007</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t xml:space="preserve">171223                        </t>
+          <t xml:space="preserve">051023                        </t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>175175</t>
+          <t>663243</t>
         </is>
       </c>
       <c r="G137" t="n">
-        <v>317</v>
+        <v>520</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>265</v>
+        <v>352</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>CDVMZPA</t>
+          <t>CDVM</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>2024-2</t>
+          <t>2024-3</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>6030010007</v>
+        <v>6030010026</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t xml:space="preserve">070823                        </t>
+          <t xml:space="preserve">061123                        </t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>662488</t>
+          <t>663243</t>
         </is>
       </c>
       <c r="G138" t="n">
-        <v>260</v>
+        <v>43</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>CDVMZPA</t>
+          <t>CDVM</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>2024-2</t>
+          <t>2024-3</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>6030050071</v>
+        <v>6030040040</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t xml:space="preserve">R140823                       </t>
+          <t xml:space="preserve">241023                        </t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>662488</t>
+          <t>663243</t>
         </is>
       </c>
       <c r="G139" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>0</v>
+        <v>380</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>CDCDCO1</t>
+          <t>CDVM</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>2024-2</t>
+          <t>2024-3</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>6030010007</v>
+        <v>6030040073</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t xml:space="preserve">220823                        </t>
+          <t xml:space="preserve">241023                        </t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>662589</t>
+          <t>663243</t>
         </is>
       </c>
       <c r="G140" t="n">
-        <v>7020</v>
+        <v>5</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>4</v>
+        <v>387</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>CDCDCO1</t>
+          <t>CDVM</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>2024-2</t>
+          <t>2024-3</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>6030010007</v>
+        <v>6030050069</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t xml:space="preserve">010923                        </t>
+          <t xml:space="preserve">R181023                       </t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>662589</t>
+          <t>663243</t>
         </is>
       </c>
       <c r="G141" t="n">
-        <v>260</v>
+        <v>26</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>6</v>
+        <v>443</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>CDCDCO1</t>
+          <t>CDVM</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>2024-2</t>
+          <t>2024-4</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>6030010007</v>
+        <v>6040100010</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t xml:space="preserve">010923                        </t>
+          <t xml:space="preserve">040124                        </t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>662592</t>
+          <t>663243</t>
         </is>
       </c>
       <c r="G142" t="n">
-        <v>4420</v>
+        <v>20</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>CDCDCO1</t>
+          <t>CDCDCO2</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -4851,29 +4851,29 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>6030010007</v>
+        <v>6050100007</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t xml:space="preserve">060923                        </t>
+          <t xml:space="preserve">290923                        </t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>662592</t>
+          <t>663259</t>
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2340</v>
+        <v>5</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>CDPI</t>
+          <t>CDCDCO2</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -4882,29 +4882,29 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>6030010170</v>
+        <v>6050100007</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t xml:space="preserve">220823                        </t>
+          <t xml:space="preserve">290923                        </t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>662591</t>
+          <t>663260</t>
         </is>
       </c>
       <c r="G144" t="n">
-        <v>7616</v>
+        <v>5</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>CDPI</t>
+          <t>CDCDCO2</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -4913,82 +4913,2903 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>6030010170</v>
+        <v>6050100007</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t xml:space="preserve">220823                        </t>
+          <t xml:space="preserve">290923                        </t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>662593</t>
+          <t>663261</t>
         </is>
       </c>
       <c r="G145" t="n">
-        <v>7072</v>
+        <v>10</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>CDGD</t>
+          <t>CDCDCO2</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>2025-4</t>
+          <t>2024-2</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>6010010007</v>
+        <v>6050100007</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t xml:space="preserve">021123                        </t>
+          <t xml:space="preserve">290923                        </t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>175184</t>
+          <t>663360</t>
         </is>
       </c>
       <c r="G146" t="n">
-        <v>120</v>
+        <v>7</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>CDGD</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>2024-3</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>6030010208</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">181023                        </t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>663244</t>
+        </is>
+      </c>
+      <c r="G147" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>CDGD</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>2024-3</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>6040100001</v>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">161123                        </t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>663244</t>
+        </is>
+      </c>
+      <c r="G148" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>CDGD</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>2024-3</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>6040100003</v>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">201123                        </t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>663244</t>
+        </is>
+      </c>
+      <c r="G149" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>CDGD</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>2024-3</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>6090020010</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">161223                        </t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>663244</t>
+        </is>
+      </c>
+      <c r="G150" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>CDCDCF1</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>2024-3</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>6040100010</v>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">261023                        </t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>662946</t>
+        </is>
+      </c>
+      <c r="G151" t="n">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>CDCDMZ1</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>2025-3</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>6011640001</v>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">191/23                        </t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>175697</t>
+        </is>
+      </c>
+      <c r="G152" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>CDGD</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>2024-3</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>6030010129</v>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t xml:space="preserve">011223                        </t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>663169</t>
+        </is>
+      </c>
+      <c r="G153" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>CDGD</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>2024-3</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>6030010129</v>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t xml:space="preserve">011223                        </t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>663198</t>
+        </is>
+      </c>
+      <c r="G154" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B147" t="inlineStr">
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>CDCDMZ1</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>2024-3</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>6030040040</v>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t xml:space="preserve">241023                        </t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>663177</t>
+        </is>
+      </c>
+      <c r="G155" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B156" t="inlineStr">
         <is>
           <t>CDGD</t>
         </is>
       </c>
-      <c r="C147" t="inlineStr">
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>2024-4</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>6090020009</v>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t xml:space="preserve">171223                        </t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>662483</t>
+        </is>
+      </c>
+      <c r="G156" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>CDGD</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>2024-4</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>6090020009</v>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t xml:space="preserve">171223                        </t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>662840</t>
+        </is>
+      </c>
+      <c r="G157" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>CDCDCS1</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>2024-4</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>6011270002</v>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t xml:space="preserve">211122                        </t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>175545</t>
+        </is>
+      </c>
+      <c r="G158" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>CDCDCS1</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>2025-3</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>6010950016</v>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t xml:space="preserve">310723                        </t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>175545</t>
+        </is>
+      </c>
+      <c r="G159" t="n">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>CDCDCS1</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
         <is>
           <t>2025-4</t>
         </is>
       </c>
-      <c r="D147" t="n">
+      <c r="D160" t="n">
+        <v>6010140007</v>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t xml:space="preserve">312/23                        </t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>175545</t>
+        </is>
+      </c>
+      <c r="G160" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>CDCDCS1</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>2025-4</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>6010140007</v>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t xml:space="preserve">313/23                        </t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>175545</t>
+        </is>
+      </c>
+      <c r="G161" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>CDCDCS1</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>2025-4</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>6010140008</v>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t xml:space="preserve">317/23                        </t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>175545</t>
+        </is>
+      </c>
+      <c r="G162" t="n">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>CDCDCS1</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>2025-4</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>6010550008</v>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t xml:space="preserve">291/23                        </t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>175545</t>
+        </is>
+      </c>
+      <c r="G163" t="n">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>CDCDCS1</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>2025-4</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>6010550008</v>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t xml:space="preserve">326/23                        </t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>175545</t>
+        </is>
+      </c>
+      <c r="G164" t="n">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>CDCDCS1</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>2025-4</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>6011270002</v>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t xml:space="preserve">011223                        </t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>175545</t>
+        </is>
+      </c>
+      <c r="G165" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>CDCDCS1</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>2025-4</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>6011640001</v>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t xml:space="preserve">339/23                        </t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>175545</t>
+        </is>
+      </c>
+      <c r="G166" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>CDCDMZ1</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>2025-2</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>6010140008</v>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t xml:space="preserve">137/23                        </t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>175676</t>
+        </is>
+      </c>
+      <c r="G167" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>CDCDMZ1</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>2025-3</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>6010550008</v>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t xml:space="preserve">201/23                        </t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>175676</t>
+        </is>
+      </c>
+      <c r="G168" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>CDCDMZ1</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>2025-3</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>6011640001</v>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t xml:space="preserve">191/23                        </t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>175677</t>
+        </is>
+      </c>
+      <c r="G169" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>CDGD</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>2026-1</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>6011640001</v>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8/24                          </t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>175702</t>
+        </is>
+      </c>
+      <c r="G170" t="n">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>CDCDCO1</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>2024-2</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>6030010170</v>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t xml:space="preserve">040923                        </t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>663316</t>
+        </is>
+      </c>
+      <c r="G171" t="n">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>CDCDCO1</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>2024-2</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>6030010170</v>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t xml:space="preserve">040923                        </t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>663397</t>
+        </is>
+      </c>
+      <c r="G172" t="n">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>CDCDCO1</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>2024-3</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>6030010007</v>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t xml:space="preserve">111023                        </t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>663316</t>
+        </is>
+      </c>
+      <c r="G173" t="n">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>CDCDCO1</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>2024-3</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>6030010007</v>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t xml:space="preserve">111023                        </t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>663397</t>
+        </is>
+      </c>
+      <c r="G174" t="n">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>CDCDCO1</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>2024-3</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>6030010019</v>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t xml:space="preserve">061123                        </t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>663316</t>
+        </is>
+      </c>
+      <c r="G175" t="n">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>CDCDCO1</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>2024-3</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>6030010019</v>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t xml:space="preserve">061123                        </t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>663397</t>
+        </is>
+      </c>
+      <c r="G176" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>CDCDCO1</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>2024-3</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>6030010026</v>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t xml:space="preserve">051023                        </t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>663316</t>
+        </is>
+      </c>
+      <c r="G177" t="n">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>CDCDCO2</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>2025-4</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>6010010008</v>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t xml:space="preserve">021023                        </t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>175662</t>
+        </is>
+      </c>
+      <c r="G178" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>CDCDCO2</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>2025-4</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>6010010008</v>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t xml:space="preserve">021023                        </t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>175663</t>
+        </is>
+      </c>
+      <c r="G179" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>CDCDMZ1</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>2025-3</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>6010010008</v>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t xml:space="preserve">180923                        </t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>175432</t>
+        </is>
+      </c>
+      <c r="G180" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>CDCDMZ1</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>2025-3</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>6010010008</v>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t xml:space="preserve">180923                        </t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>175664</t>
+        </is>
+      </c>
+      <c r="G181" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>CDCDMZ1</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>2025-3</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>6010010008</v>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t xml:space="preserve">180923                        </t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>175679</t>
+        </is>
+      </c>
+      <c r="G182" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>CDGD</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>2024-3</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>6010010077</v>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t xml:space="preserve">060822                        </t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>175703</t>
+        </is>
+      </c>
+      <c r="G183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>CDGD</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>2025-3</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>6010010077</v>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t xml:space="preserve">090923                        </t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>175703</t>
+        </is>
+      </c>
+      <c r="G184" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>CDGD</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>2025-3</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>6010010112</v>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t xml:space="preserve">280923                        </t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>175680</t>
+        </is>
+      </c>
+      <c r="G185" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>CDGD</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>2025-4</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
         <v>6010010007</v>
       </c>
-      <c r="E147" t="inlineStr">
+      <c r="E186" t="inlineStr">
         <is>
           <t xml:space="preserve">021123                        </t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>175204</t>
-        </is>
-      </c>
-      <c r="G147" t="n">
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>175699</t>
+        </is>
+      </c>
+      <c r="G186" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>CDGD</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>2025-4</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>6010010007</v>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t xml:space="preserve">241123                        </t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>175699</t>
+        </is>
+      </c>
+      <c r="G187" t="n">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>CDGD</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>2025-4</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>6010010007</v>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t xml:space="preserve">061223                        </t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>175703</t>
+        </is>
+      </c>
+      <c r="G188" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>392</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>CDGD</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>2025-4</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>6010010077</v>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t xml:space="preserve">311023                        </t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>175703</t>
+        </is>
+      </c>
+      <c r="G189" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>408</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>CDGD</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>2025-4</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>6010010077</v>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t xml:space="preserve">111123                        </t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>175703</t>
+        </is>
+      </c>
+      <c r="G190" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>423</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>CDGD</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>2026-1</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>6010010007</v>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t xml:space="preserve">170124                        </t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>175699</t>
+        </is>
+      </c>
+      <c r="G191" t="n">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>456</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>CDGD</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>2026-1</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>6010010077</v>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t xml:space="preserve">120124                        </t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>175703</t>
+        </is>
+      </c>
+      <c r="G192" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>472</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>CDGD</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>2026-1</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>6010010077</v>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">210124                        </t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>175703</t>
+        </is>
+      </c>
+      <c r="G193" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>494</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>CDPI</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>2024-2</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>6030010170</v>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t xml:space="preserve">010923                        </t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>663400</t>
+        </is>
+      </c>
+      <c r="G194" t="n">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>495</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>CDPI</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>2024-2</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>6030010170</v>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t xml:space="preserve">010923                        </t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>663414</t>
+        </is>
+      </c>
+      <c r="G195" t="n">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>606</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>CDPI</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>2024-3</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>6030010007</v>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t xml:space="preserve">121023                        </t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>663400</t>
+        </is>
+      </c>
+      <c r="G196" t="n">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>636</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>CDSETSA</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>2024-3</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>6030010007</v>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t xml:space="preserve">011123                        </t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>663394</t>
+        </is>
+      </c>
+      <c r="G197" t="n">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>748</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>CDSETSA</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>2024-3</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>6030010019</v>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t xml:space="preserve">131123                        </t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>663394</t>
+        </is>
+      </c>
+      <c r="G198" t="n">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>812</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>CDSETSA</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>2024-3</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>6030050071</v>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R081123                       </t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>663394</t>
+        </is>
+      </c>
+      <c r="G199" t="n">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>843</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>CDVM</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>2024-2</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>6030010026</v>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t xml:space="preserve">010923                        </t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>663392</t>
+        </is>
+      </c>
+      <c r="G200" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>857</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>CDVM</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>2024-2</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>6030010129</v>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t xml:space="preserve">011123                        </t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>663282</t>
+        </is>
+      </c>
+      <c r="G201" t="n">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>875</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>CDVM</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>2024-2</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>6030010170</v>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t xml:space="preserve">031023                        </t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>663392</t>
+        </is>
+      </c>
+      <c r="G202" t="n">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>889</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>CDVM</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>2024-2</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>6040100001</v>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t xml:space="preserve">101023                        </t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>663282</t>
+        </is>
+      </c>
+      <c r="G203" t="n">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>905</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>CDVM</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>2024-2</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>6090020010</v>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t xml:space="preserve">021023                        </t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>663282</t>
+        </is>
+      </c>
+      <c r="G204" t="n">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>921</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>CDVM</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>2024-3</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>6030010208</v>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t xml:space="preserve">081023                        </t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>663282</t>
+        </is>
+      </c>
+      <c r="G205" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>937</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>CDVM</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>2024-3</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>6030010208</v>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t xml:space="preserve">271023                        </t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>663282</t>
+        </is>
+      </c>
+      <c r="G206" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>985</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>CDVM</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>2024-3</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>6040100003</v>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t xml:space="preserve">201123                        </t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>663282</t>
+        </is>
+      </c>
+      <c r="G207" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>1001</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>CDVM</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>2024-3</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>6090020012</v>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t xml:space="preserve">011123                        </t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>663282</t>
+        </is>
+      </c>
+      <c r="G208" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>1046</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>CDVM</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>2025-4</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>6010010007</v>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t xml:space="preserve">161123                        </t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>175698</t>
+        </is>
+      </c>
+      <c r="G209" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>1062</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>CDVM</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>2025-4</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>6010010007</v>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t xml:space="preserve">241123                        </t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>175698</t>
+        </is>
+      </c>
+      <c r="G210" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>1078</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>CDVM</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>2026-1</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>6010010007</v>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t xml:space="preserve">070124                        </t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>175698</t>
+        </is>
+      </c>
+      <c r="G211" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>1094</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>CDVM</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>2026-1</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>6010010007</v>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t xml:space="preserve">170124                        </t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>175698</t>
+        </is>
+      </c>
+      <c r="G212" t="n">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>CDCDCF1</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>2024-2</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>6030010026</v>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t xml:space="preserve">010923                        </t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>662947</t>
+        </is>
+      </c>
+      <c r="G213" t="n">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>CDCDCO1</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>2024-2</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>6030010170</v>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t xml:space="preserve">040923                        </t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>663389</t>
+        </is>
+      </c>
+      <c r="G214" t="n">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>CDCDCO1</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>2024-2</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>6030050070</v>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R280923                       </t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>662930</t>
+        </is>
+      </c>
+      <c r="G215" t="n">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>CDCDCO1</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>2024-3</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>6030010007</v>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t xml:space="preserve">111023                        </t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>663389</t>
+        </is>
+      </c>
+      <c r="G216" t="n">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>CDCDCO1</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>2024-3</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>6030010007</v>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t xml:space="preserve">111023                        </t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>663390</t>
+        </is>
+      </c>
+      <c r="G217" t="n">
         <v>1560</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>CDCDCO1</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>2024-3</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>6030010019</v>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t xml:space="preserve">061123                        </t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>663389</t>
+        </is>
+      </c>
+      <c r="G218" t="n">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>CDCDCO1</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>2024-3</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>6030010170</v>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t xml:space="preserve">071023                        </t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>663389</t>
+        </is>
+      </c>
+      <c r="G219" t="n">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>CDCDCO1</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>2025-4</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>6010010077</v>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t xml:space="preserve">231223                        </t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>175671</t>
+        </is>
+      </c>
+      <c r="G220" t="n">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>CDCDCO2</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>2025-4</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>6010010008</v>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t xml:space="preserve">021023                        </t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>174893</t>
+        </is>
+      </c>
+      <c r="G221" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>CDCDCO2</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>2025-4</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>6010010008</v>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t xml:space="preserve">021023                        </t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>175661</t>
+        </is>
+      </c>
+      <c r="G222" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>CDCDCO2</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>2025-4</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>6010010008</v>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">021023                        </t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>175666</t>
+        </is>
+      </c>
+      <c r="G223" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>CDPI</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>2024-2</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>6030010170</v>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t xml:space="preserve">010923                        </t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>663386</t>
+        </is>
+      </c>
+      <c r="G224" t="n">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>CDPI</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>2024-2</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>6030010208</v>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t xml:space="preserve">010923                        </t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>663272</t>
+        </is>
+      </c>
+      <c r="G225" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>CDPI</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>2024-3</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>6030010007</v>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">121023                        </t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>663386</t>
+        </is>
+      </c>
+      <c r="G226" t="n">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>CDRO2</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>2024-3</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>6030010007</v>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t xml:space="preserve">021123                        </t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>663415</t>
+        </is>
+      </c>
+      <c r="G227" t="n">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>CDRO2</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>2024-3</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>6030010170</v>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t xml:space="preserve">011123                        </t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>663410</t>
+        </is>
+      </c>
+      <c r="G228" t="n">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>CDGD</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>2026-1</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>6010010007</v>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t xml:space="preserve">170124                        </t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>175600</t>
+        </is>
+      </c>
+      <c r="G229" t="n">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>CDGD</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>2026-1</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>6010010007</v>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">250124                        </t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>175600</t>
+        </is>
+      </c>
+      <c r="G230" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>CDGD</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>2026-1</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>6010010007</v>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t xml:space="preserve">250124                        </t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>175601</t>
+        </is>
+      </c>
+      <c r="G231" t="n">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>CDGD</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>2026-1</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>6010010007</v>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t xml:space="preserve">250124                        </t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>175602</t>
+        </is>
+      </c>
+      <c r="G232" t="n">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>CDGD</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>2026-1</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>6010010007</v>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t xml:space="preserve">250124                        </t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>175693</t>
+        </is>
+      </c>
+      <c r="G233" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>CDGD</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>2026-1</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>6010010007</v>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t xml:space="preserve">250124                        </t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>175694</t>
+        </is>
+      </c>
+      <c r="G234" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>CDGD</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>2026-1</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>6010010007</v>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t xml:space="preserve">250124                        </t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>175695</t>
+        </is>
+      </c>
+      <c r="G235" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>CDGD</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>2026-1</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>6010010007</v>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t xml:space="preserve">250124                        </t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>175696</t>
+        </is>
+      </c>
+      <c r="G236" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>CDSETSA</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>2025-4</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>6010010007</v>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t xml:space="preserve">061223                        </t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>175705</t>
+        </is>
+      </c>
+      <c r="G237" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>CDSETSA</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>2025-4</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>6010010077</v>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t xml:space="preserve">301123                        </t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>175705</t>
+        </is>
+      </c>
+      <c r="G238" t="n">
+        <v>840</v>
       </c>
     </row>
   </sheetData>
